--- a/biology/Médecine/Clinique_du_Pré/Clinique_du_Pré.xlsx
+++ b/biology/Médecine/Clinique_du_Pré/Clinique_du_Pré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clinique_du_Pr%C3%A9</t>
+          <t>Clinique_du_Pré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Clinique du Pré est un établissement médico-chirurgical privé de santé situé au Mans (Sarthe). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinique_du_Pr%C3%A9</t>
+          <t>Clinique_du_Pré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1837 : Construction place du Pré, dans les dépendances de l'Abbaye du Pré, d'une maison de retraite et d'une école avec orphelinat tenues par les Sœurs de la Charité de la Providence de Ruillé-sur-Loir.
 1903 : Fermeture des établissements et création d'une clinique de chirurgie, qui ouvre en 1908.
